--- a/com.healthcare/src/test/resources/excel.xlsx
+++ b/com.healthcare/src/test/resources/excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Valid credentials</t>
   </si>
@@ -151,6 +151,30 @@
       </rPr>
       <t>https://demo.openmrs.org/openmrs/login.htm</t>
     </r>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Pulse</t>
+  </si>
+  <si>
+    <t>Resp.rate</t>
+  </si>
+  <si>
+    <t>Systolic BP</t>
+  </si>
+  <si>
+    <t>Diastolic BP</t>
+  </si>
+  <si>
+    <t>Pulse oximeter value</t>
   </si>
 </sst>
 </file>
@@ -1778,8 +1802,12 @@
       <c r="N20" s="4"/>
     </row>
     <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6">
+        <v>168</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1794,8 +1822,12 @@
       <c r="N21" s="4"/>
     </row>
     <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6">
+        <v>60</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1810,8 +1842,12 @@
       <c r="N22" s="4"/>
     </row>
     <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" t="s" s="5">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6">
+        <v>40</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1826,8 +1862,12 @@
       <c r="N23" s="4"/>
     </row>
     <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" t="s" s="5">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6">
+        <v>40</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1842,8 +1882,12 @@
       <c r="N24" s="4"/>
     </row>
     <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" t="s" s="5">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6">
+        <v>12</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1858,8 +1902,12 @@
       <c r="N25" s="4"/>
     </row>
     <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" t="s" s="5">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6">
+        <v>120</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1874,8 +1922,12 @@
       <c r="N26" s="4"/>
     </row>
     <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" t="s" s="5">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6">
+        <v>80</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1890,8 +1942,12 @@
       <c r="N27" s="4"/>
     </row>
     <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" t="s" s="5">
+        <v>51</v>
+      </c>
+      <c r="B28" s="6">
+        <v>95</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
